--- a/Aerodynamics/mass balance sheet.xlsx
+++ b/Aerodynamics/mass balance sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/adevine_cpp_edu/Documents/DBF/DBF 23-24/CPPDBF23-24/Aerodynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F84619A-AB92-4F8F-AAD2-3C4617D242C6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B10792D-536A-42BD-9FD5-8D792EBE4E7C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>dy(in) Yaw Axis</t>
   </si>
@@ -138,6 +138,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,10 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA21CF-0F7D-4359-B2EC-904F0BC548BD}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,9 +519,10 @@
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -529,8 +538,11 @@
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -546,8 +558,12 @@
       <c r="E2" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F2" s="3">
+        <f>E2/454</f>
+        <v>0.23127753303964757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -563,8 +579,12 @@
       <c r="E3" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F22" si="0">E3/454</f>
+        <v>0.95594713656387664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -580,8 +600,12 @@
       <c r="E4" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12334801762114538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -597,8 +621,12 @@
       <c r="E5" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12334801762114538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -614,8 +642,12 @@
       <c r="E6" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12555066079295155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -631,11 +663,12 @@
       <c r="E7" s="2">
         <v>133</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29295154185022027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -651,11 +684,12 @@
       <c r="E8" s="2">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -671,11 +705,12 @@
       <c r="E9" s="2">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -691,11 +726,12 @@
       <c r="E10" s="2">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -711,11 +747,12 @@
       <c r="E11" s="2">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -731,8 +768,12 @@
       <c r="E12" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -748,8 +789,12 @@
       <c r="E13" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -765,8 +810,12 @@
       <c r="E14" s="2">
         <v>653</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4383259911894273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -782,8 +831,12 @@
       <c r="E15" s="2">
         <v>748</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6475770925110131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -799,8 +852,12 @@
       <c r="E16" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31277533039647576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -816,8 +873,12 @@
       <c r="E17" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11674008810572688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -833,8 +894,12 @@
       <c r="E18" s="2">
         <v>482</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0616740088105727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -851,8 +916,12 @@
         <f>176/2</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19383259911894274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -869,8 +938,12 @@
         <f>176/2</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19383259911894274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -880,8 +953,12 @@
       <c r="E21">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27092511013215859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -890,8 +967,12 @@
       <c r="E22">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0308370044052858E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -903,7 +984,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -915,25 +996,46 @@
         <v>7.5088105726872243</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f>E28*454</f>
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f>5700/F28</f>
+        <v>1.5693832599118942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
   </sheetData>

--- a/Aerodynamics/mass balance sheet.xlsx
+++ b/Aerodynamics/mass balance sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/adevine_cpp_edu/Documents/DBF/DBF 23-24/CPPDBF23-24/Aerodynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F84619A-AB92-4F8F-AAD2-3C4617D242C6}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F8F4E9-F602-4A6E-B3CE-F7BB9B8BFA9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B10792D-536A-42BD-9FD5-8D792EBE4E7C}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12336" xr2:uid="{1B10792D-536A-42BD-9FD5-8D792EBE4E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA21CF-0F7D-4359-B2EC-904F0BC548BD}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
         <v>3.49</v>
       </c>
       <c r="D3" s="2">
-        <v>12.76</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>434</v>
@@ -1045,6 +1045,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="161044b4-a74f-4aa8-bb10-2b1dd73971fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091C7DAC2B170E746863C4E45908EEB99" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3b7e75a2119ece04d9002889de9d7a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="161044b4-a74f-4aa8-bb10-2b1dd73971fc" xmlns:ns4="c42daed2-b696-4d4d-bf7b-38742997fa9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b32f862dc1f5abea7ff96fd4a76fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="161044b4-a74f-4aa8-bb10-2b1dd73971fc"/>
@@ -1247,24 +1264,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B713CC34-9507-4545-8747-FAC564788324}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="161044b4-a74f-4aa8-bb10-2b1dd73971fc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c42daed2-b696-4d4d-bf7b-38742997fa9d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="161044b4-a74f-4aa8-bb10-2b1dd73971fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC2F374-7A46-4A9D-8B65-8263F055C895}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179F8931-590A-4956-89BD-882F989E7F57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1281,29 +1306,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC2F374-7A46-4A9D-8B65-8263F055C895}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B713CC34-9507-4545-8747-FAC564788324}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="161044b4-a74f-4aa8-bb10-2b1dd73971fc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c42daed2-b696-4d4d-bf7b-38742997fa9d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Aerodynamics/mass balance sheet.xlsx
+++ b/Aerodynamics/mass balance sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/adevine_cpp_edu/Documents/DBF/DBF 23-24/CPPDBF23-24/Aerodynamics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/adevine_cpp_edu/Documents/DBF/DBF 23-24/non fudged/CPPDBF23-24/Aerodynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54A8270-DD41-48F1-BFA4-A1A0D85DD6AD}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BDF0B0-244E-4920-A143-239D4830405D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B10792D-536A-42BD-9FD5-8D792EBE4E7C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
   <si>
     <t>Tail Wheel</t>
   </si>
@@ -142,14 +142,21 @@
   </si>
   <si>
     <t>total mass(lb)</t>
+  </si>
+  <si>
+    <t>Propulsion Battery (8s 3250mAh)</t>
+  </si>
+  <si>
+    <t>Propulsion Battery (8s 2375mAh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -221,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -361,11 +368,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,9 +478,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,9 +488,26 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,22 +517,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,9 +547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,7 +587,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -586,7 +693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,15 +843,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA21CF-0F7D-4359-B2EC-904F0BC548BD}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
@@ -752,8 +859,8 @@
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
@@ -762,28 +869,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -791,23 +898,23 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>14.74</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-7.2</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <v>0.23127753303964757</v>
       </c>
       <c r="F3" s="3">
-        <f>E3*B3</f>
+        <f t="shared" ref="F3:F24" si="0">E3*B3</f>
         <v>3.4090308370044053</v>
       </c>
     </row>
@@ -824,11 +931,11 @@
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.95594713656387664</v>
       </c>
       <c r="F4" s="3">
-        <f>E4*B4</f>
+        <f t="shared" si="0"/>
         <v>18.784361233480176</v>
       </c>
     </row>
@@ -845,11 +952,11 @@
       <c r="D5" s="9">
         <v>13.99</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.12334801762114538</v>
       </c>
       <c r="F5" s="3">
-        <f>E5*B5</f>
+        <f t="shared" si="0"/>
         <v>3.0516299559471363</v>
       </c>
     </row>
@@ -866,11 +973,11 @@
       <c r="D6" s="9">
         <v>-13.99</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.12334801762114538</v>
       </c>
       <c r="F6" s="3">
-        <f>E6*B6</f>
+        <f t="shared" si="0"/>
         <v>3.0516299559471363</v>
       </c>
     </row>
@@ -887,11 +994,11 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.12555066079295155</v>
       </c>
       <c r="F7" s="3">
-        <f>E7*B7</f>
+        <f t="shared" si="0"/>
         <v>5.6158810572687221</v>
       </c>
     </row>
@@ -908,11 +1015,11 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.29295154185022027</v>
       </c>
       <c r="F8" s="3">
-        <f>E8*B8</f>
+        <f t="shared" si="0"/>
         <v>17.108370044052862</v>
       </c>
     </row>
@@ -929,11 +1036,11 @@
       <c r="D9" s="9">
         <v>28.87</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="F9" s="3">
-        <f>E9*B9</f>
+        <f t="shared" si="0"/>
         <v>1.1024229074889866</v>
       </c>
     </row>
@@ -950,11 +1057,11 @@
       <c r="D10" s="9">
         <v>-28.87</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="F10" s="3">
-        <f>E10*B10</f>
+        <f t="shared" si="0"/>
         <v>1.1024229074889866</v>
       </c>
     </row>
@@ -971,11 +1078,11 @@
       <c r="D11" s="9">
         <v>11.96</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="F11" s="3">
-        <f>E11*B11</f>
+        <f t="shared" si="0"/>
         <v>1.2009911894273126</v>
       </c>
     </row>
@@ -992,11 +1099,11 @@
       <c r="D12" s="9">
         <v>-11.96</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="F12" s="3">
-        <f>E12*B12</f>
+        <f t="shared" si="0"/>
         <v>1.2009911894273126</v>
       </c>
     </row>
@@ -1013,11 +1120,11 @@
       <c r="D13" s="9">
         <v>2.31</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="F13" s="3">
-        <f>E13*B13</f>
+        <f t="shared" si="0"/>
         <v>3.2081497797356824</v>
       </c>
     </row>
@@ -1034,11 +1141,11 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="F14" s="3">
-        <f>E14*B14</f>
+        <f t="shared" si="0"/>
         <v>3.2081497797356824</v>
       </c>
     </row>
@@ -1055,11 +1162,11 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>1.4383259911894273</v>
       </c>
       <c r="F15" s="3">
-        <f>E15*B15</f>
+        <f t="shared" si="0"/>
         <v>5.8396035242290738</v>
       </c>
     </row>
@@ -1076,11 +1183,11 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>1.6475770925110131</v>
       </c>
       <c r="F16" s="3">
-        <f>E16*B16</f>
+        <f t="shared" si="0"/>
         <v>39.541850220264315</v>
       </c>
     </row>
@@ -1097,11 +1204,11 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0.31277533039647576</v>
       </c>
       <c r="F17" s="3">
-        <f>E17*B17</f>
+        <f t="shared" si="0"/>
         <v>4.6759911894273127</v>
       </c>
     </row>
@@ -1118,11 +1225,11 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.11674008810572688</v>
       </c>
       <c r="F18" s="3">
-        <f>E18*B18</f>
+        <f t="shared" si="0"/>
         <v>6.7825991189427315</v>
       </c>
     </row>
@@ -1139,11 +1246,11 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>1.5616740088105727</v>
       </c>
       <c r="F19" s="3">
-        <f>E19*B19</f>
+        <f t="shared" si="0"/>
         <v>44.913744493392073</v>
       </c>
     </row>
@@ -1160,11 +1267,11 @@
       <c r="D20" s="9">
         <v>-7.97</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0.19383259911894274</v>
       </c>
       <c r="F20" s="3">
-        <f>E20*B20</f>
+        <f t="shared" si="0"/>
         <v>2.8570925110132159</v>
       </c>
     </row>
@@ -1181,11 +1288,11 @@
       <c r="D21" s="9">
         <v>7.97</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0.19383259911894274</v>
       </c>
       <c r="F21" s="3">
-        <f>E21*B21</f>
+        <f t="shared" si="0"/>
         <v>2.8570925110132159</v>
       </c>
     </row>
@@ -1202,11 +1309,11 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>0.27092511013215859</v>
       </c>
       <c r="F22" s="3">
-        <f>E22*B22</f>
+        <f t="shared" si="0"/>
         <v>1.7474669603524229</v>
       </c>
     </row>
@@ -1223,15 +1330,15 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>9.0308370044052858E-2</v>
       </c>
       <c r="F23" s="3">
-        <f>E23*B23</f>
+        <f t="shared" si="0"/>
         <v>9.0308370044052858E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
@@ -1241,25 +1348,25 @@
       <c r="C24" s="9">
         <v>-0.4</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
         <v>0.17</v>
       </c>
       <c r="F24" s="3">
-        <f>E24*B24</f>
+        <f t="shared" si="0"/>
         <v>1.7680000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="23">
         <f>SUM(E3:E23)</f>
         <v>8.0088105726872243</v>
       </c>
@@ -1269,13 +1376,13 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="25">
         <f>(F26-B4)/10*100</f>
         <v>19.65916391639162</v>
       </c>
@@ -1285,63 +1392,63 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>26</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>0.5</v>
       </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
         <v>5</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f>E29*B29</f>
         <v>130</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B30" s="9">
         <v>14.95</v>
@@ -1349,105 +1456,105 @@
       <c r="C30" s="9">
         <v>-0.25</v>
       </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
         <v>1.6475770925110131</v>
       </c>
       <c r="F30" s="9">
         <f>E30*B30</f>
         <v>24.631277533039647</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29"/>
+      <c r="H30">
+        <f>E30*454</f>
+        <v>748</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="28">
         <v>13.008810572687224</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="26">
         <v>288.20720704845814</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="27">
         <v>25.047700643413506</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="26">
         <v>22.154770064341349</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>30</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>0.5</v>
       </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
         <v>2.9</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>E35*B35</f>
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B36" s="9">
         <v>14.95</v>
@@ -1455,10 +1562,10 @@
       <c r="C36" s="9">
         <v>-0.25</v>
       </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
         <v>0.85499999999999998</v>
       </c>
       <c r="F36" s="9">
@@ -1469,36 +1576,763 @@
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="23">
         <v>11.078810572687226</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="26">
         <v>288.20720704845814</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="27">
         <v>30.36</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="26">
         <v>22.154770064341349</v>
       </c>
     </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10">
+        <v>14.74</v>
+      </c>
+      <c r="C43" s="10">
+        <v>-7.2</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.23127753303964757</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" ref="F43:F64" si="1">E43*B43</f>
+        <v>3.4090308370044053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3.49</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.95594713656387664</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>18.784361233480176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="9">
+        <v>24.74</v>
+      </c>
+      <c r="C45" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D45" s="9">
+        <v>13.99</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.12334801762114538</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0516299559471363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="9">
+        <v>24.74</v>
+      </c>
+      <c r="C46" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D46" s="9">
+        <v>-13.99</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0.12334801762114538</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0516299559471363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="9">
+        <v>44.73</v>
+      </c>
+      <c r="C47" s="9">
+        <v>-4.33</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.12555066079295155</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6158810572687221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="9">
+        <v>58.4</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.29295154185022027</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
+        <v>17.108370044052862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="9">
+        <v>20.02</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3.57</v>
+      </c>
+      <c r="D49" s="9">
+        <v>28.87</v>
+      </c>
+      <c r="E49" s="15">
+        <v>5.5066079295154183E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1024229074889866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="9">
+        <v>20.02</v>
+      </c>
+      <c r="C50" s="9">
+        <v>3.57</v>
+      </c>
+      <c r="D50" s="9">
+        <v>-28.87</v>
+      </c>
+      <c r="E50" s="15">
+        <v>5.5066079295154183E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1024229074889866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="9">
+        <v>21.81</v>
+      </c>
+      <c r="C51" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="D51" s="9">
+        <v>11.96</v>
+      </c>
+      <c r="E51" s="15">
+        <v>5.5066079295154183E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2009911894273126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="9">
+        <v>21.81</v>
+      </c>
+      <c r="C52" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="D52" s="9">
+        <v>-11.96</v>
+      </c>
+      <c r="E52" s="15">
+        <v>5.5066079295154183E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2009911894273126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="9">
+        <v>58.26</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2.31</v>
+      </c>
+      <c r="E53" s="15">
+        <v>5.5066079295154183E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2081497797356824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="9">
+        <v>58.26</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="15">
+        <v>5.5066079295154183E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2081497797356824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1.4383259911894273</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8396035242290738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="9">
+        <v>24</v>
+      </c>
+      <c r="C56" s="9">
+        <v>-0.25</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>1.6475770925110131</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="1"/>
+        <v>39.541850220264315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="9">
+        <v>14.95</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="15">
+        <v>0.31277533039647576</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6759911894273127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="9">
+        <v>58.1</v>
+      </c>
+      <c r="C58" s="9">
+        <v>6.35</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0.11674008810572688</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7825991189427315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="9">
+        <v>28.76</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1.5616740088105727</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="1"/>
+        <v>44.913744493392073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="9">
+        <v>14.74</v>
+      </c>
+      <c r="C60" s="9">
+        <v>-7.2</v>
+      </c>
+      <c r="D60" s="9">
+        <v>-7.97</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0.19383259911894274</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8570925110132159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="9">
+        <v>14.74</v>
+      </c>
+      <c r="C61" s="9">
+        <v>-7.2</v>
+      </c>
+      <c r="D61" s="9">
+        <v>7.97</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0.19383259911894274</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8570925110132159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="9">
+        <v>6.45</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0.27092511013215859</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7474669603524229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15">
+        <v>9.0308370044052858E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="1"/>
+        <v>9.0308370044052858E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="C64" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="D64" s="17">
+        <v>0</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7680000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="23">
+        <f>SUM(E43:E63)</f>
+        <v>8.0088105726872243</v>
+      </c>
+      <c r="F65" s="3">
+        <f>SUM(F43:F64)</f>
+        <v>173.11777973568277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="25">
+        <f>(F66-B44)/10*100</f>
+        <v>19.65916391639162</v>
+      </c>
+      <c r="F66" s="3">
+        <f>F65/SUM(E65)</f>
+        <v>21.615916391639161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="10">
+        <v>26</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
+        <v>5</v>
+      </c>
+      <c r="F69" s="10">
+        <f>E69*B69</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="9">
+        <v>14.95</v>
+      </c>
+      <c r="C70" s="9">
+        <v>-0.25</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0</v>
+      </c>
+      <c r="E70" s="18">
+        <v>1.6475770925110131</v>
+      </c>
+      <c r="F70" s="9">
+        <f>E70*B70</f>
+        <v>24.631277533039647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="28">
+        <v>13.008810572687224</v>
+      </c>
+      <c r="F71" s="26">
+        <v>288.20720704845814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="27">
+        <v>25.047700643413506</v>
+      </c>
+      <c r="F72" s="26">
+        <v>22.154770064341349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="10">
+        <v>30</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="F75" s="10">
+        <f>E75*B75</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="9">
+        <v>14.95</v>
+      </c>
+      <c r="C76" s="9">
+        <v>-0.25</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="18">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F76" s="9">
+        <f>E76*B76</f>
+        <v>12.782249999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="23">
+        <v>11.078810572687226</v>
+      </c>
+      <c r="F77" s="26">
+        <v>288.20720704845814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="27">
+        <v>30.36</v>
+      </c>
+      <c r="F78" s="26">
+        <v>22.154770064341349</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A73:F73"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1562,11 +2396,11 @@
         <v>105</v>
       </c>
       <c r="F2" s="8">
-        <f>E2/454</f>
+        <f t="shared" ref="F2:F14" si="0">E2/454</f>
         <v>0.23127753303964757</v>
       </c>
       <c r="G2" s="6">
-        <f>E2*B2</f>
+        <f t="shared" ref="G2:G24" si="1">E2*B2</f>
         <v>1547.7</v>
       </c>
     </row>
@@ -1587,11 +2421,11 @@
         <v>434</v>
       </c>
       <c r="F3" s="8">
-        <f>E3/454</f>
+        <f t="shared" si="0"/>
         <v>0.95594713656387664</v>
       </c>
       <c r="G3" s="6">
-        <f>E3*B3</f>
+        <f t="shared" si="1"/>
         <v>8528.0999999999985</v>
       </c>
     </row>
@@ -1612,11 +2446,11 @@
         <v>56</v>
       </c>
       <c r="F4" s="8">
-        <f>E4/454</f>
+        <f t="shared" si="0"/>
         <v>0.12334801762114538</v>
       </c>
       <c r="G4" s="6">
-        <f>E4*B4</f>
+        <f t="shared" si="1"/>
         <v>1385.4399999999998</v>
       </c>
     </row>
@@ -1637,11 +2471,11 @@
         <v>56</v>
       </c>
       <c r="F5" s="8">
-        <f>E5/454</f>
+        <f t="shared" si="0"/>
         <v>0.12334801762114538</v>
       </c>
       <c r="G5" s="6">
-        <f>E5*B5</f>
+        <f t="shared" si="1"/>
         <v>1385.4399999999998</v>
       </c>
     </row>
@@ -1662,11 +2496,11 @@
         <v>57</v>
       </c>
       <c r="F6" s="8">
-        <f>E6/454</f>
+        <f t="shared" si="0"/>
         <v>0.12555066079295155</v>
       </c>
       <c r="G6" s="6">
-        <f>E6*B6</f>
+        <f t="shared" si="1"/>
         <v>2549.6099999999997</v>
       </c>
     </row>
@@ -1687,11 +2521,11 @@
         <v>133</v>
       </c>
       <c r="F7" s="8">
-        <f>E7/454</f>
+        <f t="shared" si="0"/>
         <v>0.29295154185022027</v>
       </c>
       <c r="G7" s="6">
-        <f>E7*B7</f>
+        <f t="shared" si="1"/>
         <v>7767.2</v>
       </c>
     </row>
@@ -1712,11 +2546,11 @@
         <v>25</v>
       </c>
       <c r="F8" s="8">
-        <f>E8/454</f>
+        <f t="shared" si="0"/>
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="G8" s="6">
-        <f>E8*B8</f>
+        <f t="shared" si="1"/>
         <v>500.5</v>
       </c>
     </row>
@@ -1737,11 +2571,11 @@
         <v>25</v>
       </c>
       <c r="F9" s="8">
-        <f>E9/454</f>
+        <f t="shared" si="0"/>
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="G9" s="6">
-        <f>E9*B9</f>
+        <f t="shared" si="1"/>
         <v>500.5</v>
       </c>
     </row>
@@ -1762,11 +2596,11 @@
         <v>25</v>
       </c>
       <c r="F10" s="8">
-        <f>E10/454</f>
+        <f t="shared" si="0"/>
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="G10" s="6">
-        <f>E10*B10</f>
+        <f t="shared" si="1"/>
         <v>545.25</v>
       </c>
     </row>
@@ -1787,11 +2621,11 @@
         <v>25</v>
       </c>
       <c r="F11" s="8">
-        <f>E11/454</f>
+        <f t="shared" si="0"/>
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="G11" s="6">
-        <f>E11*B11</f>
+        <f t="shared" si="1"/>
         <v>545.25</v>
       </c>
     </row>
@@ -1812,11 +2646,11 @@
         <v>25</v>
       </c>
       <c r="F12" s="8">
-        <f>E12/454</f>
+        <f t="shared" si="0"/>
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="G12" s="6">
-        <f>E12*B12</f>
+        <f t="shared" si="1"/>
         <v>1456.5</v>
       </c>
     </row>
@@ -1837,11 +2671,11 @@
         <v>25</v>
       </c>
       <c r="F13" s="8">
-        <f>E13/454</f>
+        <f t="shared" si="0"/>
         <v>5.5066079295154183E-2</v>
       </c>
       <c r="G13" s="6">
-        <f>E13*B13</f>
+        <f t="shared" si="1"/>
         <v>1456.5</v>
       </c>
     </row>
@@ -1862,11 +2696,11 @@
         <v>653</v>
       </c>
       <c r="F14" s="8">
-        <f>E14/454</f>
+        <f t="shared" si="0"/>
         <v>1.4383259911894273</v>
       </c>
       <c r="G14" s="6">
-        <f>E14*B14</f>
+        <f t="shared" si="1"/>
         <v>2651.18</v>
       </c>
     </row>
@@ -1891,7 +2725,7 @@
         <v>2.9</v>
       </c>
       <c r="G15" s="6">
-        <f>E15*B15</f>
+        <f t="shared" si="1"/>
         <v>39498</v>
       </c>
     </row>
@@ -1912,11 +2746,11 @@
         <v>388</v>
       </c>
       <c r="F16" s="8">
-        <f>E16/454</f>
+        <f t="shared" ref="F16:F23" si="2">E16/454</f>
         <v>0.85462555066079293</v>
       </c>
       <c r="G16" s="6">
-        <f>E16*B16</f>
+        <f t="shared" si="1"/>
         <v>5800.5999999999995</v>
       </c>
     </row>
@@ -1937,11 +2771,11 @@
         <v>142</v>
       </c>
       <c r="F17" s="8">
-        <f>E17/454</f>
+        <f t="shared" si="2"/>
         <v>0.31277533039647576</v>
       </c>
       <c r="G17" s="6">
-        <f>E17*B17</f>
+        <f t="shared" si="1"/>
         <v>2122.9</v>
       </c>
       <c r="J17" t="s">
@@ -1971,11 +2805,11 @@
         <v>53</v>
       </c>
       <c r="F18" s="8">
-        <f>E18/454</f>
+        <f t="shared" si="2"/>
         <v>0.11674008810572688</v>
       </c>
       <c r="G18" s="6">
-        <f>E18*B18</f>
+        <f t="shared" si="1"/>
         <v>3079.3</v>
       </c>
       <c r="J18" t="s">
@@ -2002,11 +2836,11 @@
         <v>709</v>
       </c>
       <c r="F19" s="8">
-        <f>E19/454</f>
+        <f t="shared" si="2"/>
         <v>1.5616740088105727</v>
       </c>
       <c r="G19" s="6">
-        <f>E19*B19</f>
+        <f t="shared" si="1"/>
         <v>20390.84</v>
       </c>
       <c r="J19" t="s">
@@ -2037,11 +2871,11 @@
         <v>88</v>
       </c>
       <c r="F20" s="8">
-        <f>E20/454</f>
+        <f t="shared" si="2"/>
         <v>0.19383259911894274</v>
       </c>
       <c r="G20" s="6">
-        <f>E20*B20</f>
+        <f t="shared" si="1"/>
         <v>1297.1200000000001</v>
       </c>
     </row>
@@ -2063,11 +2897,11 @@
         <v>88</v>
       </c>
       <c r="F21" s="8">
-        <f>E21/454</f>
+        <f t="shared" si="2"/>
         <v>0.19383259911894274</v>
       </c>
       <c r="G21" s="6">
-        <f>E21*B21</f>
+        <f t="shared" si="1"/>
         <v>1297.1200000000001</v>
       </c>
     </row>
@@ -2088,11 +2922,11 @@
         <v>123</v>
       </c>
       <c r="F22" s="8">
-        <f>E22/454</f>
+        <f t="shared" si="2"/>
         <v>0.27092511013215859</v>
       </c>
       <c r="G22" s="6">
-        <f>E22*B22</f>
+        <f t="shared" si="1"/>
         <v>793.35</v>
       </c>
     </row>
@@ -2113,11 +2947,11 @@
         <v>41</v>
       </c>
       <c r="F23" s="8">
-        <f>E23/454</f>
+        <f t="shared" si="2"/>
         <v>9.0308370044052858E-2</v>
       </c>
       <c r="G23" s="6">
-        <f>E23*B23</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -2142,7 +2976,7 @@
         <v>0.17</v>
       </c>
       <c r="G24" s="6">
-        <f>E24*B24</f>
+        <f t="shared" si="1"/>
         <v>802.67200000000014</v>
       </c>
     </row>

--- a/Aerodynamics/mass balance sheet.xlsx
+++ b/Aerodynamics/mass balance sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/adevine_cpp_edu/Documents/DBF/DBF 23-24/non fudged/CPPDBF23-24/Aerodynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BDF0B0-244E-4920-A143-239D4830405D}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{6907828F-1F3F-4EFB-ACFA-965D0DC8D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBACFFFB-3752-4953-AB67-27EAB2F01D64}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B10792D-536A-42BD-9FD5-8D792EBE4E7C}"/>
   </bookViews>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA21CF-0F7D-4359-B2EC-904F0BC548BD}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,7 +856,7 @@
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.77734375" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
@@ -1499,6 +1499,10 @@
       </c>
       <c r="F32" s="26">
         <v>22.154770064341349</v>
+      </c>
+      <c r="I32">
+        <f>13/4.15</f>
+        <v>3.1325301204819276</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
